--- a/Информация о проходах/Казаков Арсений Игоревич.xlsx
+++ b/Информация о проходах/Казаков Арсений Игоревич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-04 07:57:41</t>
+          <t>2024-05-31 16:57:36</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-04 12:00:00</t>
+          <t>2024-06-04 07:57:41</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,81 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-06-04 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2024-06-04 12:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-04 17:00:04</t>
         </is>
       </c>
     </row>

--- a/Информация о проходах/Казаков Арсений Игоревич.xlsx
+++ b/Информация о проходах/Казаков Арсений Игоревич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-31 16:57:36</t>
+          <t>2024-06-04 07:57:41</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-04 07:57:41</t>
+          <t>2024-06-04 12:00:00</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-04 12:00:00</t>
+          <t>2024-06-04 12:43:39</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-04 12:43:39</t>
+          <t>2024-06-04 17:00:04</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,273 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-04 17:00:04</t>
+          <t>2024-06-05 08:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-05 11:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-05 12:36:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-06 07:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-06 08:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:36:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Казаков Арсений Игоревич</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Старший специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-06 16:01:12</t>
         </is>
       </c>
     </row>
